--- a/xlsx/洛克希德·马丁_intext.xlsx
+++ b/xlsx/洛克希德·马丁_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="387">
   <si>
     <t>洛克希德·马丁</t>
   </si>
@@ -29,7 +29,7 @@
     <t>New York Stock Exchange</t>
   </si>
   <si>
-    <t>政策_政策_美國_洛克希德·马丁</t>
+    <t>政策_政策_美国_洛克希德·马丁</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Marillyn_Hewson</t>
@@ -41,13 +41,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%87%8C%E8%98%AD%E5%B7%9E</t>
   </si>
   <si>
-    <t>馬里蘭州</t>
+    <t>马里兰州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%A1%9E%E6%96%AF%E8%BE%BE_(%E9%A9%AC%E9%87%8C%E5%85%B0%E5%B7%9E)</t>
@@ -71,19 +71,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E6%89%BF%E5%8C%85%E5%95%86</t>
   </si>
   <si>
-    <t>國防承包商</t>
+    <t>国防承包商</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%88%E9%81%93%E9%A3%9B%E5%BD%88</t>
   </si>
   <si>
-    <t>彈道飛彈</t>
+    <t>弹道飞弹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E9%9C%80</t>
   </si>
   <si>
-    <t>軍需</t>
+    <t>军需</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NMD</t>
@@ -95,43 +95,43 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E9%AC%A5%E6%A9%9F</t>
   </si>
   <si>
-    <t>戰鬥機</t>
+    <t>战斗机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E9%81%94</t>
   </si>
   <si>
-    <t>雷達</t>
+    <t>雷达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%80%A0%E8%A1%9B%E6%98%9F</t>
   </si>
   <si>
-    <t>人造衛星</t>
+    <t>人造卫星</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%93%8E%E5%A4%A9%E7%A5%9E%E7%B3%BB%E5%88%97%E9%81%8B%E8%BC%89%E7%81%AB%E7%AE%AD</t>
   </si>
   <si>
-    <t>擎天神系列運載火箭</t>
+    <t>擎天神系列运载火箭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E8%B3%B4%E6%81%A9</t>
   </si>
   <si>
-    <t>奧賴恩</t>
+    <t>奥赖恩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%87%9F%E6%A5%AD%E9%A1%8D</t>
   </si>
   <si>
-    <t>營業額</t>
+    <t>营业额</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A8%85%E5%89%8D%E6%81%AF%E5%89%8D%E5%88%A9%E6%BD%A4</t>
   </si>
   <si>
-    <t>稅前息前利潤</t>
+    <t>税前息前利润</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%B6%A6</t>
@@ -143,13 +143,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E7%94%A2</t>
   </si>
   <si>
-    <t>資產</t>
+    <t>资产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E6%9D%B1%E6%AC%8A%E7%9B%8A</t>
   </si>
   <si>
-    <t>股東權益</t>
+    <t>股东权益</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -179,27 +179,24 @@
     <t>https://zh.wikipedia.org/wiki/T-50%E9%87%91%E9%B7%B9%E5%BC%8F%E9%AB%98%E7%B4%9A%E6%95%99%E7%B7%B4%E6%A9%9F</t>
   </si>
   <si>
-    <t>T-50金鷹式高級教練機</t>
+    <t>T-50金鹰式高级教练机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%8D%84%E7%81%AB%E9%A3%9B%E5%BD%88</t>
   </si>
   <si>
-    <t>地獄火飛彈</t>
+    <t>地狱火飞弹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/P-3%E7%8D%B5%E6%88%B6%E5%BA%A7%E6%B5%B7%E4%B8%8A%E5%B7%A1%E9%82%8F%E6%A9%9F</t>
   </si>
   <si>
-    <t>P-3獵戶座海上巡邏機</t>
+    <t>P-3猎户座海上巡逻机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E5%85%8B%E5%B8%8C%E5%BE%B7%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
@@ -215,9 +212,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E9%87%8C%E5%85%B0%E5%B7%9E</t>
   </si>
   <si>
-    <t>马里兰州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%93%A5%E9%A9%AC%E5%88%A9%E5%8E%BF_(%E9%A9%AC%E9%87%8C%E5%85%B0%E5%B7%9E)</t>
   </si>
   <si>
@@ -227,13 +221,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E5%90%88%E7%B4%84%E5%95%86</t>
   </si>
   <si>
-    <t>國防合約商</t>
+    <t>国防合约商</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%98%B2%E9%83%A8</t>
   </si>
   <si>
-    <t>美國國防部</t>
+    <t>美国国防部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
@@ -293,7 +287,7 @@
     <t>https://zh.wikipedia.org/wiki/B-17%E9%A3%9B%E8%A1%8C%E5%A0%A1%E5%A3%98</t>
   </si>
   <si>
-    <t>B-17飛行堡壘</t>
+    <t>B-17飞行堡垒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AD%E9%BC%AC%E5%B7%A5%E5%8E%82</t>
@@ -311,31 +305,31 @@
     <t>https://zh.wikipedia.org/wiki/U-2%E5%81%B5%E5%AF%9F%E6%A9%9F</t>
   </si>
   <si>
-    <t>U-2偵察機</t>
+    <t>U-2侦察机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/SR-71%E9%BB%91%E9%B3%A5%E5%BC%8F%E5%81%B5%E5%AF%9F%E6%A9%9F</t>
   </si>
   <si>
-    <t>SR-71黑鳥式偵察機</t>
+    <t>SR-71黑鸟式侦察机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/F-117%E5%A4%9C%E9%B7%B9%E6%88%B0%E9%AC%A5%E6%94%BB%E6%93%8A%E6%A9%9F</t>
   </si>
   <si>
-    <t>F-117夜鷹戰鬥攻擊機</t>
+    <t>F-117夜鹰战斗攻击机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/C-130%E9%81%8B%E8%BC%B8%E6%A9%9F</t>
   </si>
   <si>
-    <t>C-130運輸機</t>
+    <t>C-130运输机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/F-104%E6%98%9F%E5%BC%8F%E6%88%B0%E9%AC%A5%E6%A9%9F</t>
   </si>
   <si>
-    <t>F-104星式戰鬥機</t>
+    <t>F-104星式战斗机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%AD%87L-1011</t>
@@ -347,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/C-5%E9%81%8B%E8%BC%B8%E6%A9%9F</t>
   </si>
   <si>
-    <t>C-5運輸機</t>
+    <t>C-5运输机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%BA%E6%96%AF%E6%B4%9B%E6%99%AE%C2%B7%E6%A0%BC%E9%B2%81%E9%97%A8</t>
@@ -365,19 +359,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2%E8%A1%9B%E6%98%9F%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>亞洲衛星有限公司</t>
+    <t>亚洲卫星有限公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>美國政府</t>
+    <t>美国政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/F-35%E9%96%83%E9%9B%BBII%E6%94%BB%E6%93%8A%E6%88%B0%E9%AC%A5%E6%A9%9F</t>
   </si>
   <si>
-    <t>F-35閃電II攻擊戰鬥機</t>
+    <t>F-35闪电II攻击战斗机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/JSF</t>
@@ -407,13 +401,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%88%E7%B4%84</t>
   </si>
   <si>
-    <t>合約</t>
+    <t>合约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E6%8A%80%E8%A1%93%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>聯合技術公司</t>
+    <t>联合技术公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%A7%91%E6%96%AF%E5%9F%BA%E9%A3%9E%E6%9C%BA%E5%85%AC%E5%8F%B8</t>
@@ -425,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%9B%BE%E6%88%B0%E9%AC%A5%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>神盾戰鬥系統</t>
+    <t>神盾战斗系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/C-130</t>
@@ -467,19 +461,19 @@
     <t>https://zh.wikipedia.org/wiki/RQ-170%E5%81%B5%E6%9F%A5%E6%A9%9F</t>
   </si>
   <si>
-    <t>RQ-170偵查機</t>
+    <t>RQ-170侦查机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E5%8F%89%E6%88%9F%E9%A3%9B%E5%BD%88</t>
   </si>
   <si>
-    <t>三叉戟飛彈</t>
+    <t>三叉戟飞弹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%93%8E%E5%A4%A9%E7%A5%9E%E9%A3%9B%E5%BD%88</t>
   </si>
   <si>
-    <t>擎天神飛彈</t>
+    <t>擎天神飞弹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/AGM-158_JASSM</t>
@@ -497,7 +491,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E8%88%AA%E7%A9%BA%E8%A3%BD%E9%80%A0%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>聯合航空製造公司</t>
+    <t>联合航空制造公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E8%88%AA%E7%A9%BA%E8%88%AA%E5%A4%A9%E5%88%97%E8%A1%A8%E9%9B%86</t>
@@ -545,13 +539,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E8%A1%8C%E5%99%A8%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>飛行器列表</t>
+    <t>飞行器列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E8%A1%8C%E5%99%A8%E8%A3%BD%E9%80%A0%E5%95%86%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>飛行器製造商列表</t>
+    <t>飞行器制造商列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E7%A9%BA%E5%8F%91%E5%8A%A8%E6%9C%BA</t>
@@ -563,13 +557,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%8B%E7%BF%BC%E6%A9%9F</t>
   </si>
   <si>
-    <t>旋翼機</t>
+    <t>旋翼机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E5%A0%B4%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>機場列表</t>
+    <t>机场列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E7%A9%BA%E8%88%AA%E5%A4%A9%E5%8D%9A%E7%89%A9%E9%A6%86%E5%88%97%E8%A1%A8</t>
@@ -593,31 +587,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%9F%E5%A7%8B%E5%AE%A2%E6%88%B6</t>
   </si>
   <si>
-    <t>啟始客戶</t>
+    <t>启始客户</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%99%B4%E5%B0%84%E5%AE%A2%E6%A9%9F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>噴射客機列表</t>
+    <t>喷射客机列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E6%A9%9F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>貨機列表</t>
+    <t>货机列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B2%E6%AD%87%E6%A5%AD%E8%88%AA%E7%A9%BA%E5%85%AC%E5%8F%B8%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>已歇業航空公司列表</t>
+    <t>已歇业航空公司列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%88%AA%E7%A9%BA%E9%81%8B%E8%BC%B8%E5%8D%94%E6%9C%83%E8%88%AA%E7%A9%BA%E5%85%AC%E5%8F%B8%E4%BB%A3%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際航空運輸協會航空公司代碼</t>
+    <t>国际航空运输协会航空公司代码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E7%94%A8%E8%88%AA%E7%A9%BA%E7%AE%A1%E7%90%86%E9%83%A8%E9%97%A8%E5%88%97%E8%A1%A8</t>
@@ -629,13 +623,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E7%94%A8%E8%88%AA%E7%A9%BA</t>
   </si>
   <si>
-    <t>軍用航空</t>
+    <t>军用航空</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E8%BB%8D%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>空軍列表</t>
+    <t>空军列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%BC%E5%BC%B9</t>
@@ -647,19 +641,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E4%BA%BA%E8%88%AA%E7%A9%BA%E8%BC%89%E5%85%B7</t>
   </si>
   <si>
-    <t>無人航空載具</t>
+    <t>无人航空载具</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%A6%E9%A9%97%E6%A9%9F</t>
   </si>
   <si>
-    <t>試驗機</t>
+    <t>试验机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1962%E7%BE%8E%E5%9C%8B%E4%B8%89%E8%BB%8D%E8%88%AA%E7%A9%BA%E5%99%A8%E5%91%BD%E5%90%8D%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>1962美國三軍航空器命名系統</t>
+    <t>1962美国三军航空器命名系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1962%E5%B9%B4%E7%BE%8E%E5%9B%BD%E4%B8%89%E5%86%9B%E5%AF%BC%E5%BC%B9%E5%8F%8A%E6%97%A0%E4%BA%BA%E6%9C%BA%E5%91%BD%E5%90%8D%E7%B3%BB%E7%BB%9F</t>
@@ -671,7 +665,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E8%BB%8D%E7%94%A8%E8%88%AA%E7%A9%BA%E5%99%A8%E5%BA%8F%E8%99%9F</t>
   </si>
   <si>
-    <t>英國軍用航空器序號</t>
+    <t>英国军用航空器序号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA</t>
@@ -683,43 +677,43 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E5%A4%A9%E6%A9%9F%E6%A7%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>航天機構列表</t>
+    <t>航天机构列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E7%A9%BF%E6%A2%AD%E6%A9%9F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>太空穿梭機列表</t>
+    <t>太空穿梭机列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E8%BC%89%E7%81%AB%E7%AE%AD%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>運載火箭列表</t>
+    <t>运载火箭列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E8%BC%89%E7%81%AB%E7%AE%AD%E4%B8%8A%E9%9D%A2%E7%B4%9A%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>運載火箭上面級列表</t>
+    <t>运载火箭上面级列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E7%9B%9F%E7%B3%BB%E5%88%97%E5%AE%87%E5%AE%99%E9%A3%9B%E8%88%B9%E7%99%BC%E5%B0%84%E4%BB%BB%E5%8B%99%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>聯盟系列宇宙飛船發射任務列表</t>
+    <t>联盟系列宇宙飞船发射任务列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%99%E5%A4%96%E6%B4%BB%E5%8B%95%E5%88%97%E8%A1%A8_(1965%E5%B9%B4%E8%87%B31999%E5%B9%B4)</t>
   </si>
   <si>
-    <t>艙外活動列表 (1965年至1999年)</t>
+    <t>舱外活动列表 (1965年至1999年)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%AE%E7%82%AE%E8%99%9F%E5%A4%AA%E7%A9%BA%E7%AB%99%E8%89%99%E5%A4%96%E6%B4%BB%E5%8B%95%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>禮炮號太空站艙外活動列表</t>
+    <t>礼炮号太空站舱外活动列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA2000%E5%B9%B4%E7%9A%84%E8%88%B1%E5%A4%96%E6%B4%BB%E5%8A%A8%E5%88%97%E8%A1%A8</t>
@@ -737,7 +731,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E9%81%8A%E5%AE%A2</t>
   </si>
   <si>
-    <t>太空遊客</t>
+    <t>太空游客</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E7%A9%BA%E4%BA%8B%E6%95%85</t>
@@ -755,7 +749,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E7%94%A8%E9%A3%9B%E6%A9%9F%E7%A9%BA%E9%9B%A3%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>軍用飛機空難列表</t>
+    <t>军用飞机空难列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%A0%E6%88%90%E8%87%B3%E5%B0%9150%E4%BA%BA%E6%AD%BB%E4%BA%A1%E7%9A%84%E7%A9%BA%E9%9A%BE%E5%88%97%E8%A1%A8</t>
@@ -767,25 +761,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E5%A4%A9%E8%A8%98%E9%8C%84%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>航天記錄列表</t>
+    <t>航天记录列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E8%A1%8C%E9%80%9F%E5%BA%A6%E8%A8%98%E9%8C%84</t>
   </si>
   <si>
-    <t>飛行速度記錄</t>
+    <t>飞行速度记录</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E8%A1%8C%E8%B7%9D%E9%9B%A2%E8%A8%98%E9%8C%84</t>
   </si>
   <si>
-    <t>飛行距離記錄</t>
+    <t>飞行距离记录</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E6%A9%9F%E6%9C%80%E9%AB%98%E8%A3%BD%E9%80%A0%E6%95%B8%E9%87%8F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>飛機最高製造數量列表</t>
+    <t>飞机最高制造数量列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E5%85%8B%E5%B8%8C%E5%BE%B7%E6%98%9F%E5%BA%A7</t>
@@ -797,7 +791,7 @@
     <t>https://zh.wikipedia.org/wiki/F-80%E6%88%B0%E9%AC%A5%E6%A9%9F</t>
   </si>
   <si>
-    <t>F-80戰鬥機</t>
+    <t>F-80战斗机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/F-94</t>
@@ -809,31 +803,31 @@
     <t>https://zh.wikipedia.org/wiki/YF-12%E6%88%B0%E9%AC%A5%E6%A9%9F</t>
   </si>
   <si>
-    <t>YF-12戰鬥機</t>
+    <t>YF-12战斗机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/P-2%E6%B5%B7%E7%8E%8B%E6%98%9F%E5%B7%A1%E9%82%8F%E6%A9%9F</t>
   </si>
   <si>
-    <t>P-2海王星巡邏機</t>
+    <t>P-2海王星巡逻机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/S-3%E7%B6%AD%E4%BA%AC</t>
   </si>
   <si>
-    <t>S-3維京</t>
+    <t>S-3维京</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/EP-3%E5%81%B5%E5%AF%9F%E6%A9%9F</t>
   </si>
   <si>
-    <t>EP-3偵察機</t>
+    <t>EP-3侦察机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/SR-72%E5%81%B5%E5%AF%9F%E6%A9%9F</t>
   </si>
   <si>
-    <t>SR-72偵察機</t>
+    <t>SR-72侦察机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/T-33_Shooting_Star</t>
@@ -857,13 +851,13 @@
     <t>https://zh.wikipedia.org/wiki/D-21%E7%84%A1%E4%BA%BA%E5%81%B5%E5%AF%9F%E6%A9%9F</t>
   </si>
   <si>
-    <t>D-21無人偵察機</t>
+    <t>D-21无人侦察机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/X-7%E8%A9%A6%E9%A9%97%E6%A9%9F</t>
   </si>
   <si>
-    <t>X-7試驗機</t>
+    <t>X-7试验机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/X-27%E8%AF%95%E9%AA%8C%E6%9C%BA</t>
@@ -875,13 +869,13 @@
     <t>https://zh.wikipedia.org/wiki/X-33%E8%A9%A6%E9%A9%97%E6%A9%9F</t>
   </si>
   <si>
-    <t>X-33試驗機</t>
+    <t>X-33试验机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/X-35%E5%AF%A6%E9%A9%97%E6%A9%9F</t>
   </si>
   <si>
-    <t>X-35實驗機</t>
+    <t>X-35实验机</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/International_Launch_Services</t>
@@ -959,7 +953,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E7%99%BC%E5%B0%84%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>聯合發射聯盟</t>
+    <t>联合发射联盟</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Goodyear_Airdock</t>
@@ -995,7 +989,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%99%E6%96%AF%E7%9B%BE%E6%88%B0%E9%AC%A5%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>宙斯盾戰鬥系統</t>
+    <t>宙斯盾战斗系统</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/RUM-139_VL-Asroc</t>
@@ -1031,7 +1025,7 @@
     <t>https://zh.wikipedia.org/wiki/F-117%E5%A4%9C%E9%B7%B9%E6%88%B0%E9%AC%A5%E6%A9%9F</t>
   </si>
   <si>
-    <t>F-117夜鷹戰鬥機</t>
+    <t>F-117夜鹰战斗机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/AGM-158%E8%81%94%E5%90%88%E7%A9%BA%E9%9D%A2%E5%AF%BC%E5%BC%B9</t>
@@ -1043,7 +1037,7 @@
     <t>https://zh.wikipedia.org/wiki/FGM-148%E6%A8%99%E6%A7%8D%E9%A3%9B%E5%BD%88</t>
   </si>
   <si>
-    <t>FGM-148標槍飛彈</t>
+    <t>FGM-148标枪飞弹</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/AGM-169_JCM</t>
@@ -1055,7 +1049,7 @@
     <t>https://zh.wikipedia.org/wiki/AGM-114%E5%9C%B0%E7%8D%84%E7%81%AB%E9%A3%9B%E5%BD%88</t>
   </si>
   <si>
-    <t>AGM-114地獄火飛彈</t>
+    <t>AGM-114地狱火飞弹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E9%9F%B3YAL-1</t>
@@ -1085,7 +1079,7 @@
     <t>https://zh.wikipedia.org/wiki/M270%E5%A4%9A%E7%AE%A1%E7%81%AB%E7%AE%AD%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>M270多管火箭系統</t>
+    <t>M270多管火箭系统</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Mobile_User_Objective_System</t>
@@ -1103,7 +1097,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E8%B3%B4%E6%81%A9%E5%A4%AA%E7%A9%BA%E8%88%B9</t>
   </si>
   <si>
-    <t>奧賴恩太空船</t>
+    <t>奥赖恩太空船</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/FGM-172_SRAW</t>
@@ -1121,7 +1115,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E5%8D%80%E9%AB%98%E7%A9%BA%E9%98%B2%E5%BE%A1%E9%A3%9B%E5%BD%88</t>
   </si>
   <si>
-    <t>戰區高空防御飛彈</t>
+    <t>战区高空防御飞弹</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Lockheed_Martin_Sniper_XR</t>
@@ -1145,7 +1139,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E6%94%BF%E5%B9%B4%E5%BA%A6</t>
   </si>
   <si>
-    <t>財政年度</t>
+    <t>财政年度</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Robert_J._Stevens</t>
@@ -1157,7 +1151,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1175,13 +1169,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -2393,7 +2387,7 @@
         <v>59</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="G30" t="n">
         <v>13</v>
@@ -2419,10 +2413,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -2448,10 +2442,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>5</v>
@@ -2477,10 +2471,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F33" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2506,10 +2500,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2564,10 +2558,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2593,10 +2587,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F37" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2622,10 +2616,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G38" t="n">
         <v>2</v>
@@ -2651,10 +2645,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F39" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2680,10 +2674,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2709,10 +2703,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F41" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2738,10 +2732,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F42" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G42" t="n">
         <v>4</v>
@@ -2767,10 +2761,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F43" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2796,10 +2790,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F44" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2825,10 +2819,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F45" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G45" t="n">
         <v>2</v>
@@ -2854,10 +2848,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F46" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2883,10 +2877,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F47" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2912,10 +2906,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F48" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G48" t="n">
         <v>2</v>
@@ -2941,10 +2935,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F49" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G49" t="n">
         <v>6</v>
@@ -2970,10 +2964,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F50" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2999,10 +2993,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F51" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -3028,10 +3022,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F52" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -3057,10 +3051,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F53" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3086,10 +3080,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F54" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G54" t="n">
         <v>5</v>
@@ -3115,10 +3109,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F55" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G55" t="n">
         <v>2</v>
@@ -3144,10 +3138,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F56" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3173,10 +3167,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F57" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3202,10 +3196,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F58" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3231,10 +3225,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F59" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3260,10 +3254,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F60" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3289,10 +3283,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F61" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3318,10 +3312,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F62" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3347,10 +3341,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F63" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G63" t="n">
         <v>3</v>
@@ -3376,10 +3370,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F64" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3405,10 +3399,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F65" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G65" t="n">
         <v>2</v>
@@ -3434,10 +3428,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F66" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -3463,10 +3457,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F67" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3492,10 +3486,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3521,10 +3515,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F69" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3550,10 +3544,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F70" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>9</v>
@@ -3579,10 +3573,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F71" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>4</v>
@@ -3608,10 +3602,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F72" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G72" t="n">
         <v>3</v>
@@ -3637,10 +3631,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F73" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>4</v>
@@ -3666,10 +3660,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F74" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>2</v>
@@ -3695,10 +3689,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F75" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>3</v>
@@ -3724,10 +3718,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F76" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3753,10 +3747,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F77" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
@@ -3782,10 +3776,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
@@ -3811,10 +3805,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F79" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3840,10 +3834,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F80" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3869,10 +3863,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F81" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3898,10 +3892,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F82" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G82" t="n">
         <v>9</v>
@@ -3927,10 +3921,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F83" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -3956,10 +3950,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F84" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G84" t="n">
         <v>13</v>
@@ -3985,10 +3979,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F85" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G85" t="n">
         <v>3</v>
@@ -4014,10 +4008,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F86" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G86" t="n">
         <v>9</v>
@@ -4043,10 +4037,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F87" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4072,10 +4066,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F88" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4101,10 +4095,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F89" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
@@ -4130,10 +4124,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F90" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G90" t="n">
         <v>3</v>
@@ -4159,10 +4153,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F91" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4188,10 +4182,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F92" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4217,10 +4211,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F93" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4246,10 +4240,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F94" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4275,10 +4269,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F95" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G95" t="n">
         <v>3</v>
@@ -4304,10 +4298,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F96" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4333,10 +4327,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F97" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4362,10 +4356,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F98" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4391,10 +4385,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F99" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4420,10 +4414,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F100" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4449,10 +4443,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F101" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4478,10 +4472,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F102" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4507,10 +4501,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F103" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G103" t="n">
         <v>7</v>
@@ -4536,10 +4530,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F104" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
@@ -4565,10 +4559,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F105" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G105" t="n">
         <v>6</v>
@@ -4594,10 +4588,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F106" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4623,10 +4617,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F107" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G107" t="n">
         <v>2</v>
@@ -4652,10 +4646,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F108" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4681,10 +4675,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F109" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4710,10 +4704,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F110" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4739,10 +4733,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F111" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G111" t="n">
         <v>5</v>
@@ -4768,10 +4762,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F112" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4797,10 +4791,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F113" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4826,10 +4820,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F114" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G114" t="n">
         <v>2</v>
@@ -4855,10 +4849,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F115" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4884,10 +4878,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F116" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4913,10 +4907,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F117" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4942,10 +4936,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F118" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4971,10 +4965,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F119" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5000,10 +4994,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F120" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5029,10 +5023,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F121" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5058,10 +5052,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F122" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G122" t="n">
         <v>2</v>
@@ -5087,10 +5081,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F123" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5116,10 +5110,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F124" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5145,10 +5139,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F125" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5174,10 +5168,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F126" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5203,10 +5197,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F127" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5232,10 +5226,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F128" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5261,10 +5255,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F129" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5290,10 +5284,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>60</v>
+      </c>
+      <c r="F130" t="s">
         <v>61</v>
-      </c>
-      <c r="F130" t="s">
-        <v>62</v>
       </c>
       <c r="G130" t="n">
         <v>27</v>
@@ -5319,10 +5313,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F131" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G131" t="n">
         <v>2</v>
@@ -5348,10 +5342,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F132" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G132" t="n">
         <v>2</v>
@@ -5377,10 +5371,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F133" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5406,10 +5400,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F134" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5435,10 +5429,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F135" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G135" t="n">
         <v>2</v>
@@ -5493,10 +5487,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F137" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -5522,10 +5516,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F138" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5551,10 +5545,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F139" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G139" t="n">
         <v>3</v>
@@ -5580,10 +5574,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F140" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5609,10 +5603,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F141" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5638,10 +5632,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F142" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5667,10 +5661,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F143" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5696,10 +5690,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F144" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5725,10 +5719,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F145" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G145" t="n">
         <v>2</v>
@@ -5754,10 +5748,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F146" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5783,10 +5777,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F147" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5812,10 +5806,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F148" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5841,10 +5835,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F149" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G149" t="n">
         <v>2</v>
@@ -5870,10 +5864,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F150" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G150" t="n">
         <v>2</v>
@@ -5899,10 +5893,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F151" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5928,10 +5922,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F152" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5957,10 +5951,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F153" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5986,10 +5980,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F154" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6015,10 +6009,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F155" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6044,10 +6038,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F156" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6073,10 +6067,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F157" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6102,10 +6096,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F158" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6131,10 +6125,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F159" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6160,10 +6154,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F160" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G160" t="n">
         <v>2</v>
@@ -6189,10 +6183,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F161" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G161" t="n">
         <v>2</v>
@@ -6218,10 +6212,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F162" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6247,10 +6241,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F163" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G163" t="n">
         <v>2</v>
@@ -6276,10 +6270,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F164" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G164" t="n">
         <v>2</v>
@@ -6305,10 +6299,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F165" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6334,10 +6328,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F166" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G166" t="n">
         <v>2</v>
@@ -6363,10 +6357,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F167" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G167" t="n">
         <v>2</v>
@@ -6392,10 +6386,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F168" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6421,10 +6415,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F169" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6450,10 +6444,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F170" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6479,10 +6473,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F171" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6508,10 +6502,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F172" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6537,10 +6531,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F173" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6566,10 +6560,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F174" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6595,10 +6589,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F175" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G175" t="n">
         <v>2</v>
@@ -6624,10 +6618,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F176" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6653,10 +6647,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F177" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6682,10 +6676,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F178" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6711,10 +6705,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F179" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6740,10 +6734,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F180" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6769,10 +6763,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F181" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6798,10 +6792,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F182" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6827,10 +6821,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F183" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6856,10 +6850,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F184" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -6885,10 +6879,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F185" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G185" t="n">
         <v>2</v>
@@ -6914,10 +6908,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F186" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G186" t="n">
         <v>2</v>
@@ -6943,10 +6937,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F187" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -6972,10 +6966,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F188" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7001,10 +6995,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F189" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7030,10 +7024,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F190" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7059,10 +7053,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F191" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7088,10 +7082,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F192" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G192" t="n">
         <v>3</v>
@@ -7117,10 +7111,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F193" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G193" t="n">
         <v>9</v>
@@ -7146,10 +7140,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F194" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7175,10 +7169,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F195" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G195" t="n">
         <v>2</v>
@@ -7204,10 +7198,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F196" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G196" t="n">
         <v>3</v>
@@ -7233,10 +7227,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F197" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7262,10 +7256,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F198" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7291,10 +7285,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F199" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7320,10 +7314,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F200" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
